--- a/biology/Botanique/Apium/Apium.xlsx
+++ b/biology/Botanique/Apium/Apium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Apium, au sens large (incluant Helosciadium) regroupe des plantes herbacées, appelées aches ou céleris, de la famille des Apiacées (ou Ombellifères). L'espèce la plus connue est le céleri commun, dont plusieurs variétés sont cultivées comme légumes ou plantes condimentaires.
-Apium désignait chez les latins des ombellifères appelées ache domestique ou ache sauvage[1].
+Apium désignait chez les latins des ombellifères appelées ache domestique ou ache sauvage.
 C'est ce genre qui a donné son nom à la famille des Apiacées.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes herbacées bisannuelles, à petites fleurs blanchâtres groupées en ombelles.
 </t>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont originaires des régions tempérées de l'ancien monde : Europe, Afrique du Nord, Asie occidentale. L'ache se plait dans les sols salés, en bord de mer, de la Corse à la Norvège.
 </t>
@@ -575,16 +591,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études de phylogénie moléculaire [2] font apparaître une séparation au sein de genre Apium, entre la branche Apium et le sous-genre Helosciadium que l'on doit rattacher à la tribu des Oenantheae. Le genre Apium ne comporterait, en Europe, que l'espèce Apium graveolens [3].
-Selon ITIS      (17 juin 2016)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études de phylogénie moléculaire  font apparaître une séparation au sein de genre Apium, entre la branche Apium et le sous-genre Helosciadium que l'on doit rattacher à la tribu des Oenantheae. Le genre Apium ne comporterait, en Europe, que l'espèce Apium graveolens .
+Selon ITIS      (17 juin 2016) :
 Apium graveolens L. - le céleri odorant
 Apium nodiflorum (L.) Lag. - voir Helosciadium nodiflorum W.D.J.Koch (Ache nodiflore)
 Apium prostratum Labill.
 Apium repens (Jacq.) Lag.
 On cite aussi Apium inundatum(L.) Rchb.f. voir Helosciadium inundatum (L.) ex W.D.J.Koch (Ache inondée)
-Selon GRIN            (17 juin 2016)[5] :
+Selon GRIN            (17 juin 2016) :
 Apium graveolens L.
 Apium graveolens var. dulce (Mill.) DC.
 Apium graveolens var. graveolens
@@ -593,7 +611,7 @@
 Apium panul (DC.) Reiche
 Apium prostratum Labill.
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (17 juin 2016)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 juin 2016) (Attention liste brute contenant possiblement des synonymes) :
 Apium alpinum (Waldst. &amp; Kit.) Caruel
 Apium ammi Crantz
 Apium ammi-maius Crantz
@@ -714,7 +732,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>légume : céleri-branche, céleri-rave
 Plante condimentaire : céleri
@@ -746,9 +766,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Grecs en couronnaient les vainqueurs des Jeux isthmiques : les vertes tiges de l'ache couronnent le front de ce vainqueur heureux (Pindare)[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Grecs en couronnaient les vainqueurs des Jeux isthmiques : les vertes tiges de l'ache couronnent le front de ce vainqueur heureux (Pindare).
 </t>
         </is>
       </c>
@@ -777,9 +799,11 @@
           <t>Symbolisme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle symbolise une jeunesse triomphante et joyeuse.  Si elle jouait un rôle important dans les cérémonies funèbres, c'était pour indiquer l'état d'éternelle jeunesse, auquel le défunt venait d'accéder[7].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle symbolise une jeunesse triomphante et joyeuse.  Si elle jouait un rôle important dans les cérémonies funèbres, c'était pour indiquer l'état d'éternelle jeunesse, auquel le défunt venait d'accéder.
 </t>
         </is>
       </c>
